--- a/Loja_Eletronicos/Banco Dados/Estoque.xlsx
+++ b/Loja_Eletronicos/Banco Dados/Estoque.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proco\source\repos\Codigo_Eletro\Codigo_Eletro-main\Loja de Eletronicos\Banco Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proco\source\repos\Loja_Eletronicos\Loja_Eletronicos\Banco Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444FFE00-54EF-4DC5-9948-074FF23530E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763CA1F1-822B-4B6F-AD02-0E7C70EB5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7335" xr2:uid="{38DB6068-3F45-4020-B219-D03EC812C828}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t>11/11/1111</t>
+  </si>
+  <si>
+    <t>33/33/3333</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,12 +464,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
